--- a/LBS-stories-LP2.xlsx
+++ b/LBS-stories-LP2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Files\Iut\LPCISIIE\ProgWebServeur\api_lbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
   <si>
     <t>USER STORIES pour l'application LE BON SANDWICH</t>
   </si>
@@ -243,6 +243,36 @@
   </si>
   <si>
     <t>192.168.99.100:8080/api_lbs/api/sandwichs?img={img}&amp;t={type_pain}</t>
+  </si>
+  <si>
+    <t>TD1</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>TD2</t>
+  </si>
+  <si>
+    <t>TD3</t>
+  </si>
+  <si>
+    <t>TD4</t>
+  </si>
+  <si>
+    <t>TD5</t>
+  </si>
+  <si>
+    <t>TD6</t>
+  </si>
+  <si>
+    <t>TD7</t>
+  </si>
+  <si>
+    <t>2,b erreur 400 à faire vérifier pour 500 et 405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation d'une ressource et ressource existance à vérifier </t>
   </si>
 </sst>
 </file>
@@ -776,8 +806,8 @@
   </sheetPr>
   <dimension ref="A1:AMI1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -789,7 +819,9 @@
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="63.7109375" customWidth="1"/>
-    <col min="8" max="21" width="9.85546875" customWidth="1"/>
+    <col min="8" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="21" width="9.85546875" customWidth="1"/>
     <col min="22" max="1024" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -935,8 +967,12 @@
         <v>8</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -972,8 +1008,12 @@
         <v>66</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1009,8 +1049,12 @@
         <v>64</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1046,7 +1090,9 @@
         <v>67</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1083,7 +1129,9 @@
         <v>68</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1116,7 +1164,9 @@
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1153,7 +1203,9 @@
         <v>69</v>
       </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>

--- a/LBS-stories-LP2.xlsx
+++ b/LBS-stories-LP2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
   <si>
     <t>USER STORIES pour l'application LE BON SANDWICH</t>
   </si>
@@ -242,9 +242,6 @@
     <t>192.168.99.100:8080/api_lbs/api/sandwichs/{id}</t>
   </si>
   <si>
-    <t>192.168.99.100:8080/api_lbs/api/sandwichs?img={img}&amp;t={type_pain}</t>
-  </si>
-  <si>
     <t>TD1</t>
   </si>
   <si>
@@ -273,6 +270,18 @@
   </si>
   <si>
     <t xml:space="preserve">Creation d'une ressource et ressource existance à vérifier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.99.100:8080/api_lbs/api/sandwichs?img={img}
+192.168.99.100:8080/api_lbs/api/sandwichs?t={type_pain} 
+192.168.99.100:8080/api_lbs/api/sandwichs?img={img}&amp;t={type_pain} 
+où img vaut 0 ou 1
+</t>
+  </si>
+  <si>
+    <t>Pour les stories n° 3 et 6 : 
+Rajouter les paramètres page={numPage} et/ou size={taille}
+Exemple : 192.168.99.100:8080/api_lbs/api/sandwichs?img={img}&amp;t={type_pain}&amp;page={numPage}&amp;size={taille}</t>
   </si>
 </sst>
 </file>
@@ -372,7 +381,7 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -391,16 +400,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -418,31 +417,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -451,6 +428,45 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -806,8 +822,8 @@
   </sheetPr>
   <dimension ref="A1:AMI1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -818,7 +834,7 @@
     <col min="4" max="4" width="55.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="63.7109375" customWidth="1"/>
+    <col min="7" max="7" width="74.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.85546875" customWidth="1"/>
     <col min="10" max="10" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="21" width="9.85546875" customWidth="1"/>
@@ -944,34 +960,34 @@
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
     </row>
-    <row r="6" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="20" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -986,33 +1002,33 @@
       <c r="U6" s="2"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+      <c r="A7" s="17">
         <v>1</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="17">
         <v>1</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="17">
         <v>2</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="16" t="s">
         <v>66</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -1027,33 +1043,33 @@
       <c r="U7" s="2"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+      <c r="A8" s="17">
         <v>2</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="17">
         <v>1</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="17">
         <v>2</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="16" t="s">
         <v>64</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1068,30 +1084,30 @@
       <c r="U8" s="2"/>
     </row>
     <row r="9" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+      <c r="A9" s="17">
         <v>3</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="17">
         <v>1</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="17">
         <v>2</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="16" t="s">
         <v>67</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1107,30 +1123,30 @@
       <c r="U9" s="2"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+      <c r="A10" s="17">
         <v>4</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="17">
         <v>1</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="17">
         <v>2</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="16" t="s">
         <v>68</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1146,26 +1162,26 @@
       <c r="U10" s="2"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+      <c r="A11" s="17">
         <v>5</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="17">
         <v>1</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="17">
         <v>3</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1180,31 +1196,31 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+    <row r="12" spans="1:21" ht="60" x14ac:dyDescent="0.2">
+      <c r="A12" s="17">
         <v>6</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="17">
         <v>1</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="17">
         <v>3</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="28" t="s">
-        <v>69</v>
+      <c r="G12" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1219,24 +1235,28 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
+    <row r="13" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
         <v>7</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="17">
         <v>1</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="17">
         <v>3</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
+      <c r="F13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>80</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1253,23 +1273,23 @@
       <c r="U13" s="2"/>
     </row>
     <row r="14" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
+      <c r="A14" s="17">
         <v>8</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="17">
         <v>1</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="17">
         <v>3</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1286,23 +1306,23 @@
       <c r="U14" s="2"/>
     </row>
     <row r="15" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
+      <c r="A15" s="17">
         <v>9</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="17">
         <v>1</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="17">
         <v>4</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1319,23 +1339,23 @@
       <c r="U15" s="2"/>
     </row>
     <row r="16" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
+      <c r="A16" s="17">
         <v>10</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="17">
         <v>1</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="17">
         <v>6</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1352,23 +1372,23 @@
       <c r="U16" s="2"/>
     </row>
     <row r="17" spans="1:1023" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
+      <c r="A17" s="17">
         <v>11</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="17">
         <v>1</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="17">
         <v>4</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1385,23 +1405,23 @@
       <c r="U17" s="2"/>
     </row>
     <row r="18" spans="1:1023" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
+      <c r="A18" s="17">
         <v>12</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="17">
         <v>1</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="17">
         <v>3</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1418,23 +1438,23 @@
       <c r="U18" s="2"/>
     </row>
     <row r="19" spans="1:1023" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
+      <c r="A19" s="17">
         <v>13</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="17">
         <v>1</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="17">
         <v>2</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1451,23 +1471,23 @@
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="1:1023" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
+      <c r="A20" s="17">
         <v>14</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="17">
         <v>2</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="17">
         <v>3</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1484,23 +1504,23 @@
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="1:1023" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
+      <c r="A21" s="17">
         <v>15</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="17">
         <v>2</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="17">
         <v>3</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1517,23 +1537,23 @@
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:1023" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
+      <c r="A22" s="17">
         <v>16</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="17">
         <v>2</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="17">
         <v>4</v>
       </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1549,55 +1569,55 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:1023" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:1023" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
       <c r="AMF23"/>
       <c r="AMG23"/>
       <c r="AMH23"/>
       <c r="AMI23"/>
     </row>
-    <row r="24" spans="1:1023" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:1023" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="20" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="2"/>
@@ -1616,23 +1636,23 @@
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="1:1023" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="9">
+      <c r="A25" s="17">
         <v>101</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="17">
         <v>1</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="17">
         <v>3</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1649,23 +1669,23 @@
       <c r="U25" s="2"/>
     </row>
     <row r="26" spans="1:1023" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="9">
+      <c r="A26" s="17">
         <v>102</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="17">
         <v>1</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="17">
         <v>3</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1682,23 +1702,23 @@
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="1:1023" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="9">
+      <c r="A27" s="17">
         <v>103</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="17">
         <v>1</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="17">
         <v>3</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -1714,55 +1734,55 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:1023" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1023" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
       <c r="AMF28"/>
       <c r="AMG28"/>
       <c r="AMH28"/>
       <c r="AMI28"/>
     </row>
-    <row r="29" spans="1:1023" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:1023" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="20" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="2"/>
@@ -1781,23 +1801,23 @@
       <c r="U29" s="2"/>
     </row>
     <row r="30" spans="1:1023" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="19">
+      <c r="A30" s="17">
         <v>200</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="17">
         <v>1</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="17">
         <v>5</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -1814,23 +1834,23 @@
       <c r="U30" s="2"/>
     </row>
     <row r="31" spans="1:1023" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="9">
+      <c r="A31" s="17">
         <v>201</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="17">
         <v>1</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="17">
         <v>5</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -1847,23 +1867,23 @@
       <c r="U31" s="2"/>
     </row>
     <row r="32" spans="1:1023" ht="51" x14ac:dyDescent="0.2">
-      <c r="A32" s="9">
+      <c r="A32" s="17">
         <v>203</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="17">
         <v>1</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="17">
         <v>6</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -1880,23 +1900,23 @@
       <c r="U32" s="2"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A33" s="9">
+      <c r="A33" s="17">
         <v>204</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="17">
         <v>3</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="17">
         <v>4</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -1912,51 +1932,51 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="15"/>
-    </row>
-    <row r="35" spans="1:21" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+    </row>
+    <row r="35" spans="1:21" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="20" t="s">
         <v>8</v>
       </c>
       <c r="H35" s="2"/>
@@ -1974,24 +1994,24 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19">
+    <row r="36" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="17">
         <v>300</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="17">
         <v>1</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="17">
         <v>3</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -2007,24 +2027,24 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="24">
+    <row r="37" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="25">
         <v>301</v>
       </c>
-      <c r="B37" s="24">
+      <c r="B37" s="25">
         <v>1</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="25">
         <v>6</v>
       </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -2040,24 +2060,24 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="24">
+    <row r="38" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="25">
         <v>302</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B38" s="25">
         <v>1</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="25">
         <v>3</v>
       </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -2073,20 +2093,34 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+    </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D40" s="23" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="29">
         <f>SUM(E7:E38)</f>
         <v>90</v>
       </c>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
     </row>
     <row r="44" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
       <c r="E44" s="1"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2108,8 +2142,8 @@
     <row r="45" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -2130,8 +2164,8 @@
     <row r="46" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
       <c r="E46" s="1"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2153,7 +2187,7 @@
     <row r="47" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="22"/>
+      <c r="C47" s="15"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>

--- a/LBS-stories-LP2.xlsx
+++ b/LBS-stories-LP2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
   <si>
     <t>USER STORIES pour l'application LE BON SANDWICH</t>
   </si>
@@ -282,6 +282,9 @@
     <t>Pour les stories n° 3 et 6 : 
 Rajouter les paramètres page={numPage} et/ou size={taille}
 Exemple : 192.168.99.100:8080/api_lbs/api/sandwichs?img={img}&amp;t={type_pain}&amp;page={numPage}&amp;size={taille}</t>
+  </si>
+  <si>
+    <t>metadonnes</t>
   </si>
 </sst>
 </file>
@@ -381,7 +384,7 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -465,9 +468,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,7 +827,7 @@
   <dimension ref="A1:AMI1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1109,7 +1113,9 @@
       <c r="I9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="32" t="s">
+        <v>81</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
